--- a/ass_B/效率效果.xlsx
+++ b/ass_B/效率效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtage\PycharmProjects\ml_datamining\ass_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A2149-8A4C-4834-B104-ED6F24869534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CAFE6-6458-4F7C-9A5C-B04061F60C1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FAA90A6-B1FA-4F47-8D99-D9D94F5545D2}"/>
   </bookViews>
@@ -61,11 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Silhouette Coefficient</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,10 +456,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -470,7 +470,7 @@
         <v>317.834</v>
       </c>
       <c r="C2">
-        <v>0.57736675991471398</v>
+        <v>0.56311529260894899</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -481,7 +481,7 @@
         <v>0.156</v>
       </c>
       <c r="C3">
-        <v>0.438244650228863</v>
+        <v>0.43304566133509897</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
